--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2044366.543095391</v>
+        <v>2143804.507482987</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004886</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6088132.119081442</v>
+        <v>6511000.385826902</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>30.49859044677784</v>
       </c>
       <c r="G2" t="n">
-        <v>95.87627183698373</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>12.29949544561326</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>103.8171286208093</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>170.2553066834602</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -911,7 +913,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>49.49512077555119</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.378995526347924</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>106.4996628416748</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1133,10 +1135,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1145,7 +1147,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>95.58060005053804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>181.1434624630639</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1297,7 +1299,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>127.800783542038</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1306,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1348,7 +1350,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>5.273089753999516</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>257.3585198122245</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>97.6011216289977</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>220.6581393427439</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864466</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>166.3388297957844</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>165.7104322459758</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864465</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396352</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>160.9061021023308</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2081,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686834</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396298</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>75.25534642052892</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2293,16 +2295,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>91.2432876734013</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.6429778048368</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2722,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2956,16 +2958,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>148.1612423902099</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.3509450707813</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3433,10 +3435,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>66.82300722904168</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>71.04375511693387</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.1081656384744</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>66.75159993004411</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>19.64740624208219</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>249.2845169594112</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3979,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>340.8711642449527</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.0156118599943</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>170.5586896897042</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1438.597012500542</v>
+        <v>168.7534004685707</v>
       </c>
       <c r="C2" t="n">
-        <v>1415.736686554246</v>
+        <v>145.8930745222749</v>
       </c>
       <c r="D2" t="n">
-        <v>992.4440657392461</v>
+        <v>126.6408577476793</v>
       </c>
       <c r="E2" t="n">
-        <v>566.4671258871036</v>
+        <v>104.7043219359409</v>
       </c>
       <c r="F2" t="n">
-        <v>141.3429440765038</v>
+        <v>73.89766491899356</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>73.59900654884625</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>73.59900654884625</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>517.641059534746</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>517.641059534746</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>977.2289161310157</v>
       </c>
       <c r="N2" t="n">
-        <v>1696.494830002562</v>
+        <v>1456.167840373444</v>
       </c>
       <c r="O2" t="n">
-        <v>1696.494830002562</v>
+        <v>1456.167840373444</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.813899533646</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1351.458990130059</v>
       </c>
       <c r="V2" t="n">
-        <v>1867.421837588626</v>
+        <v>993.9695752563082</v>
       </c>
       <c r="W2" t="n">
-        <v>1867.421837588626</v>
+        <v>597.5782255566551</v>
       </c>
       <c r="X2" t="n">
-        <v>1455.701838756373</v>
+        <v>589.8986307648064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1454.404972751668</v>
+        <v>184.5613607196967</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>46.1487782542293</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>51.94486801115937</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>119.1699405917395</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="M3" t="n">
-        <v>669.8354755761777</v>
+        <v>796.7851917762489</v>
       </c>
       <c r="N3" t="n">
-        <v>669.8354755761777</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.9200589091701</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>322.9474957880861</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>322.9474957880861</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>310.5237630147394</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>310.5237630147394</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>96.19346351647548</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.50742245321</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375111</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1691.767416841773</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.0860276212358</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1746.091355883837</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.190625897137</v>
+        <v>2021.099408463506</v>
       </c>
       <c r="D5" t="n">
-        <v>895.8980050821372</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E5" t="n">
-        <v>873.9614692703988</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4565,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>549.9383681074144</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>1100.603903091853</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4601,16 +4603,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>2167.236586180072</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1761.899316134963</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>874.3078922751886</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>1220.501010560616</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>1771.166545545054</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>454.3200315065851</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="C7" t="n">
-        <v>454.3200315065851</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="D7" t="n">
-        <v>454.3200315065851</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4726,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1947.200787969719</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1667.016339470023</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1385.304872078052</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1110.452468250565</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>867.88857169637</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>641.5458033861121</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>938.0105478030285</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163286</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4802,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>116.829168004879</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>667.4947029893171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>667.4947029893171</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.160237973755</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2128.365191805267</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1770.875776931517</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1770.875776931517</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>323.6423572907505</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>669.8354755761777</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>961.4711417263379</v>
+        <v>946.7665737820055</v>
       </c>
       <c r="C10" t="n">
-        <v>789.4985786052539</v>
+        <v>774.7940106609215</v>
       </c>
       <c r="D10" t="n">
-        <v>626.1818057320246</v>
+        <v>611.4772377876922</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.88744210802</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>1204.035038280533</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>961.4711417263379</v>
+        <v>1136.932542494071</v>
       </c>
       <c r="Y10" t="n">
-        <v>961.4711417263379</v>
+        <v>1136.932542494071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1600.810541971063</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1173.909811984363</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>750.6171911693634</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>324.640251317221</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>324.640251317221</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>324.640251317221</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1142.793917289187</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1142.793917289187</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>1607.830298401975</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>2408.271910799778</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3234.107524839608</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3234.107524839608</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2837.716175139955</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2425.996176307703</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.658906262593</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>865.1237628945952</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N12" t="n">
-        <v>1665.565375292398</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2136.875619950717</v>
+        <v>516.5477476675559</v>
       </c>
       <c r="C13" t="n">
-        <v>1964.903056829633</v>
+        <v>516.5477476675559</v>
       </c>
       <c r="D13" t="n">
-        <v>1801.586283956404</v>
+        <v>516.5477476675559</v>
       </c>
       <c r="E13" t="n">
-        <v>1635.378078109257</v>
+        <v>516.5477476675559</v>
       </c>
       <c r="F13" t="n">
-        <v>1463.516303883818</v>
+        <v>344.6859734421163</v>
       </c>
       <c r="G13" t="n">
-        <v>1297.25933417805</v>
+        <v>344.6859734421163</v>
       </c>
       <c r="H13" t="n">
-        <v>1153.463065686204</v>
+        <v>200.8897049502707</v>
       </c>
       <c r="I13" t="n">
-        <v>1053.69449742648</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>1111.185825650638</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>1337.713426856475</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>1692.402748150896</v>
+        <v>741.0109641302424</v>
       </c>
       <c r="M13" t="n">
-        <v>2083.588543121147</v>
+        <v>1132.196759100493</v>
       </c>
       <c r="N13" t="n">
-        <v>2461.080053997182</v>
+        <v>1509.688269976529</v>
       </c>
       <c r="O13" t="n">
-        <v>2816.508182676946</v>
+        <v>1865.116398656292</v>
       </c>
       <c r="P13" t="n">
-        <v>3107.107394598846</v>
+        <v>2155.715610578193</v>
       </c>
       <c r="Q13" t="n">
-        <v>3234.107524839608</v>
+        <v>2282.715740818955</v>
       </c>
       <c r="R13" t="n">
-        <v>3187.068911526781</v>
+        <v>2235.677127506128</v>
       </c>
       <c r="S13" t="n">
-        <v>3187.068911526781</v>
+        <v>2065.542080025263</v>
       </c>
       <c r="T13" t="n">
-        <v>3187.068911526781</v>
+        <v>1822.202732251163</v>
       </c>
       <c r="U13" t="n">
-        <v>3187.068911526781</v>
+        <v>1542.018283751467</v>
       </c>
       <c r="V13" t="n">
-        <v>3070.800657354722</v>
+        <v>1260.306816359496</v>
       </c>
       <c r="W13" t="n">
-        <v>2795.948253527235</v>
+        <v>985.4544125320087</v>
       </c>
       <c r="X13" t="n">
-        <v>2553.384356973041</v>
+        <v>742.8905159778138</v>
       </c>
       <c r="Y13" t="n">
-        <v>2327.041588662782</v>
+        <v>516.5477476675559</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2098.741872743728</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1671.841142757028</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1248.548521942028</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>822.5715820898859</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>397.4474002792861</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>468.8595413818912</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L14" t="n">
-        <v>468.8595413818912</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M14" t="n">
-        <v>1269.301153779694</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N14" t="n">
-        <v>1269.301153779694</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>2069.742766177497</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>2778.022045335425</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3129.740230712749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3129.740230712749</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3129.740230712749</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2733.348881013096</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2321.628882180843</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2321.628882180843</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1992.543385290554</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>1875.037481808059</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>1771.197523323344</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>1666.495589596281</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>1572.849759279185</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>1478.795987496789</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>1425.419894259099</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>1432.866537221011</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>1704.564026500602</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>1704.564026500602</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>2505.005638898405</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>2505.005638898405</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>3234.107524839608</v>
+        <v>1782.102586447038</v>
       </c>
       <c r="O15" t="n">
-        <v>3234.107524839608</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>3234.107524839608</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>3234.107524839608</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>3234.107524839608</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>3152.783277400863</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>3010.903341698541</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>2826.135145618178</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>2621.162006757444</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>2424.640629590661</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>2261.163283357324</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>2121.470394710617</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>977.8123129441849</v>
+        <v>684.0483191256287</v>
       </c>
       <c r="C16" t="n">
-        <v>805.8397498231009</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D16" t="n">
-        <v>642.5229769498716</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E16" t="n">
-        <v>642.5229769498716</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541297</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2001.75583013582</v>
+        <v>1898.15780502933</v>
       </c>
       <c r="U16" t="n">
-        <v>1721.571381636125</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.571381636125</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.718977808638</v>
+        <v>1343.120952702147</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.155081254443</v>
+        <v>1100.557056147952</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.8123129441849</v>
+        <v>874.2142878376944</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5540,22 +5542,22 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5595,19 +5597,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>178.3669786993277</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2039.376393044857</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1764.52398921737</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988734</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.067963188322</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5780,22 +5782,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>440.5322462326804</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1869.241345563992</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1594.388941736505</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1307.345429672325</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1307.345429672325</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6230,22 +6232,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6461,16 +6463,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
         <v>2988.069926596602</v>
@@ -6552,16 +6554,16 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>2002.531292319261</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.81982492729</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1720.81982492729</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1478.255928373095</v>
+        <v>835.7965919358394</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>609.4538236255814</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,10 +6785,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>855.0038060102931</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4017.903765402536</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281452</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>5115.135670291427</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>4951.828802806542</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>4676.976398979054</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>4434.41250242486</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>4208.069734114601</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6920,67 +6922,67 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988731</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>409.5807935972432</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1125.089101572742</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1125.089101572742</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2129.375202991801</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478501</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629314</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787241</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164565</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209198</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372837</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547884</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700735</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430107</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7023,19 +7025,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>739.6560874287652</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7056,10 +7058,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>938.046102504054</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573464</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D37" t="n">
-        <v>850.194499935752</v>
+        <v>579.5737431045868</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886055</v>
+        <v>413.3655372574403</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631659</v>
+        <v>413.3655372574403</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573981</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.40887333407</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>207.5440612468773</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>923.0523692223763</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1852.677416841653</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2856.963518260711</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3833.214576747412</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M39" t="n">
-        <v>223.2920388516654</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="N39" t="n">
-        <v>223.2920388516654</v>
+        <v>4143.635082195253</v>
       </c>
       <c r="O39" t="n">
-        <v>1112.773316863137</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3582.845861148491</v>
+        <v>4017.903765402532</v>
       </c>
       <c r="C40" t="n">
-        <v>3582.845861148491</v>
+        <v>3845.931202281448</v>
       </c>
       <c r="D40" t="n">
-        <v>3582.845861148491</v>
+        <v>3682.614429408219</v>
       </c>
       <c r="E40" t="n">
-        <v>3416.637655301345</v>
+        <v>3516.406223561072</v>
       </c>
       <c r="F40" t="n">
-        <v>3244.775881075905</v>
+        <v>3344.544449335633</v>
       </c>
       <c r="G40" t="n">
-        <v>3078.518911370137</v>
+        <v>3178.287479629865</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878291</v>
+        <v>3034.491211138019</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878291</v>
+        <v>2934.722642878295</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.21397110245</v>
+        <v>2992.213971102453</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308287</v>
+        <v>3218.74157230829</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602708</v>
+        <v>3573.430893602711</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572959</v>
+        <v>3964.616688572962</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199448994</v>
+        <v>4342.108199448998</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128757</v>
+        <v>4697.536328128761</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050658</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S40" t="n">
-        <v>4945.00062281056</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T40" t="n">
-        <v>4701.66127503646</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U40" t="n">
-        <v>4421.476826536765</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="V40" t="n">
-        <v>4139.765359144793</v>
+        <v>4833.424202899456</v>
       </c>
       <c r="W40" t="n">
-        <v>3864.912955317307</v>
+        <v>4558.571799071969</v>
       </c>
       <c r="X40" t="n">
-        <v>3622.349058763112</v>
+        <v>4316.007902517774</v>
       </c>
       <c r="Y40" t="n">
-        <v>3582.845861148491</v>
+        <v>4089.665134207516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1765.976622961234</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1339.075892974534</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>915.7832721595344</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>489.8063323073919</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68215049679213</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679213</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679213</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679213</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679213</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>865.1237628945947</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1665.565375292397</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2408.271910799776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>2408.271910799776</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712747</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>2908.81465975738</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>2650.459750353793</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2583.033891838596</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2583.033891838596</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2171.313893006344</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1765.976622961234</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679213</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M42" t="n">
-        <v>190.4672461969935</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N42" t="n">
-        <v>990.9088585947961</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O42" t="n">
-        <v>1791.350470992599</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1791.350470992599</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1791.350470992599</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>818.3382943006532</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C43" t="n">
-        <v>646.3657311795691</v>
+        <v>429.2616196618956</v>
       </c>
       <c r="D43" t="n">
-        <v>646.3657311795691</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795691</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483617</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1532.779626958885</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1251.068159566914</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1251.068159566914</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X43" t="n">
-        <v>1008.504263012719</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y43" t="n">
-        <v>1008.504263012719</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1652.88758435258</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1652.88758435258</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.88758435258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679213</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679213</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>865.1237628945947</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>1665.565375292397</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N44" t="n">
-        <v>2466.0069876902</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>3234.107524839606</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3234.107524839606</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839606</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839606</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3234.107524839606</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2889.793217521472</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.07321868922</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2072.73594864411</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679213</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679213</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>190.4672461969935</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="K45" t="n">
-        <v>190.4672461969935</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="L45" t="n">
-        <v>190.4672461969935</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="M45" t="n">
-        <v>990.9088585947961</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="N45" t="n">
-        <v>990.9088585947961</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="O45" t="n">
-        <v>1791.350470992599</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="P45" t="n">
-        <v>1791.350470992599</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1791.350470992599</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>818.3382943006532</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C46" t="n">
-        <v>646.3657311795691</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D46" t="n">
-        <v>646.3657311795691</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795691</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483617</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T46" t="n">
-        <v>1784.582169342129</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U46" t="n">
-        <v>1504.397720842433</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.397720842433</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="W46" t="n">
-        <v>1229.545317014946</v>
+        <v>4316.759470190144</v>
       </c>
       <c r="X46" t="n">
-        <v>1229.545317014946</v>
+        <v>4144.477965453069</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.202548704688</v>
+        <v>3918.135197142812</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>519.5412919487776</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>501.661421077482</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>521.0563139884142</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>452.5855512828693</v>
+        <v>521.3520529641995</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>90.41920043198729</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>506.8734716662962</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675099</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>131.7781250670408</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8149,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.6403295087172</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>180.0440798263965</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8301,22 +8303,22 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>372.7867989824566</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>102.4815180266284</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8468,13 +8470,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8535,22 +8537,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>371.0330466836702</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8693,22 +8695,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>507.0133411301914</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8775,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>831.6236617222301</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234437</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>233.0753299089938</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>230.3933721714771</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8929,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>77.75847157077246</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L14" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9000,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>831.0419679241317</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>757.8095796693026</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>153.3615438023236</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9243,22 +9245,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9492,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>60.04398625350153</v>
+        <v>693.1063741240905</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9717,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,10 +9880,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M26" t="n">
-        <v>56.96224792398087</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9896,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>656.0343783945846</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10200,19 +10202,19 @@
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>229.9655591801901</v>
       </c>
       <c r="O30" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>782.8192206581333</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>339.8018586688337</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10607,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>666.8880674041833</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>135.7243512442217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,13 +10831,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10905,19 +10907,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>145.3082203566077</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>21.73518417458029</v>
       </c>
       <c r="O39" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093334</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>787.4882445590711</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11142,22 +11144,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>150.1524327347536</v>
+        <v>445.5991972680949</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234432</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>831.6987709321238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093334</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443477</v>
+        <v>751.2280472965118</v>
       </c>
       <c r="O44" t="n">
-        <v>813.250087789768</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>147.666766555759</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222296</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>831.6987709321238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>392.0964168176092</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>37.53117492848099</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.169760948129081</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.9917413058709</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.804326687400732</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>75.19552205038323</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180538</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94.83953384262102</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180536</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>79.23215548632211</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>113.0089626044161</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>148.8949699152516</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.62133122010819</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>91.97701519844301</v>
       </c>
       <c r="Y31" t="n">
-        <v>23.72839555637404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.7713927796685</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>117.2205539080111</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.971174988681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>287.1629207949689</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.495750241103</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>28.09808705528752</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>51.55627195770387</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.24869716495067</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>69.57956789894868</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>564627.4576204895</v>
+        <v>562398.4220112411</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>417337.357465401</v>
+        <v>562826.4630960908</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>417337.357465401</v>
+        <v>562826.4630960908</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>562826.4630960908</v>
+        <v>562826.4630960909</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>562826.4630960909</v>
+        <v>562826.4630960908</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>417337.3574654008</v>
+        <v>562826.4630960908</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417337.3574654008</v>
+        <v>562826.4630960908</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480515.2011092096</v>
+        <v>480515.2011092094</v>
       </c>
       <c r="C2" t="n">
-        <v>480515.2011092095</v>
+        <v>480515.2011092093</v>
       </c>
       <c r="D2" t="n">
         <v>480515.2011092094</v>
       </c>
       <c r="E2" t="n">
-        <v>343829.0724022653</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="F2" t="n">
-        <v>343829.0724022654</v>
+        <v>463675.0825883941</v>
       </c>
       <c r="G2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="H2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883941</v>
       </c>
       <c r="I2" t="n">
         <v>463675.0825883938</v>
@@ -26338,22 +26340,22 @@
         <v>463675.0825883938</v>
       </c>
       <c r="K2" t="n">
-        <v>463675.0825883937</v>
+        <v>463675.0825883936</v>
       </c>
       <c r="L2" t="n">
-        <v>463675.0825883937</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="M2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="N2" t="n">
-        <v>463675.0825883942</v>
+        <v>463675.0825883941</v>
       </c>
       <c r="O2" t="n">
-        <v>343829.0724022653</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="P2" t="n">
-        <v>343829.0724022653</v>
+        <v>463675.0825883939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361215</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346229</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115404</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701974</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537379</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165375.7390424566</v>
+        <v>179728.0181786382</v>
       </c>
       <c r="C4" t="n">
         <v>165375.7390424566</v>
@@ -26424,40 +26426,40 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>32409.76799618242</v>
+        <v>43748.40045389553</v>
       </c>
       <c r="F4" t="n">
-        <v>32409.76799618241</v>
+        <v>43748.40045389551</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389549</v>
+        <v>43748.40045389555</v>
       </c>
       <c r="H4" t="n">
         <v>43748.40045389551</v>
       </c>
       <c r="I4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="M4" t="n">
         <v>43748.40045389556</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>43748.40045389556</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="P4" t="n">
         <v>43748.40045389556</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43748.40045389556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43748.40045389555</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43748.40045389563</v>
-      </c>
-      <c r="O4" t="n">
-        <v>32409.7679961824</v>
-      </c>
-      <c r="P4" t="n">
-        <v>32409.7679961824</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61288.47761458755</v>
+        <v>75621.26403881861</v>
       </c>
       <c r="C6" t="n">
-        <v>247693.2110293248</v>
+        <v>224286.3773557125</v>
       </c>
       <c r="D6" t="n">
-        <v>247693.2110293247</v>
+        <v>247693.2110293246</v>
       </c>
       <c r="E6" t="n">
-        <v>186929.9188750586</v>
+        <v>126437.2633894282</v>
       </c>
       <c r="F6" t="n">
-        <v>262260.870028521</v>
+        <v>342176.6199460689</v>
       </c>
       <c r="G6" t="n">
-        <v>213286.2201345281</v>
+        <v>342176.6199460686</v>
       </c>
       <c r="H6" t="n">
+        <v>342176.6199460689</v>
+      </c>
+      <c r="I6" t="n">
         <v>342176.6199460686</v>
       </c>
-      <c r="I6" t="n">
-        <v>342176.6199460685</v>
-      </c>
       <c r="J6" t="n">
-        <v>196642.950011252</v>
+        <v>215599.3513657797</v>
       </c>
       <c r="K6" t="n">
-        <v>342176.6199460684</v>
+        <v>323530.0195890486</v>
       </c>
       <c r="L6" t="n">
-        <v>342176.6199460685</v>
+        <v>342176.6199460686</v>
       </c>
       <c r="M6" t="n">
-        <v>279302.6829806948</v>
+        <v>162112.7484909009</v>
       </c>
       <c r="N6" t="n">
-        <v>342176.6199460689</v>
+        <v>342176.6199460688</v>
       </c>
       <c r="O6" t="n">
-        <v>262260.8700285209</v>
+        <v>342176.6199460687</v>
       </c>
       <c r="P6" t="n">
-        <v>262260.8700285208</v>
+        <v>342176.6199460686</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.571056177249782e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.571056177249782e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.571056177249782e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.571056177249782e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943073</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.571056177249782e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>390.3743495457159</v>
       </c>
       <c r="G2" t="n">
-        <v>304.4193999494621</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>152.2466283430617</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>173.5654753938895</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>245.3945739651546</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27673,7 +27675,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>304.4193999494618</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.8853134985971</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27786,7 +27788,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>134.4062914546842</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>160.1907602590138</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>226.4593363808663</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>36.74534024663697</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>273.6212629640519</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-5.862385031523347e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28779,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-2.228237517870027e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30423,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.338993615027746e-12</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>464.2301581780502</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>415.010189472638</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67.90411371775774</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>108.6062353448186</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34869,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201029275</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>144.2794790315872</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>238.1458997847902</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.06155854104185</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35188,13 +35190,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>444.605878150503</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35413,22 +35415,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>469.7337182957454</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099021</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>808.5268812099021</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>209.9034401867715</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711534</v>
       </c>
       <c r="M13" t="n">
         <v>395.137166636617</v>
@@ -35647,19 +35649,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>41.99387077596311</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099021</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>736.466551455761</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>36.8720965312793</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,10 +36600,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M26" t="n">
-        <v>19.53098502454905</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36616,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36920,19 +36922,19 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="O30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>760.3041339439037</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>310.3818991832472</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37327,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>643.7912868918553</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>106.3043917586351</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,13 +37551,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>122.2114398442797</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.3921559610386215</v>
       </c>
       <c r="O39" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37716,10 +37718,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968729</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391588</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099016</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>750.208621724625</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>127.0556522224256</v>
+        <v>422.5024167557669</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099016</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099016</v>
+        <v>713.9484244620658</v>
       </c>
       <c r="O44" t="n">
-        <v>775.859128433744</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>127.0556522224256</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>369.3493785286307</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2143804.507482987</v>
+        <v>2143107.846277896</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114758</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>308.2118302975319</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>30.49859044677784</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>103.8171286208093</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>152.6093644905698</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.2553066834602</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>57.36335635934025</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>106.4996628416748</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>138.0567122119947</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1141,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>16.73390230529095</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>181.1434624630639</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>133.9073134702961</v>
       </c>
       <c r="E10" t="n">
-        <v>127.800783542038</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1341,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1350,13 +1350,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250128</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>97.6011216289977</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1587,16 +1587,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>132.8183690537872</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864466</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1770,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>165.7104322459758</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028901</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1858,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864465</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396352</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>75.30362264056416</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2083,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.631722686834</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396298</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.25534642052892</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2715,19 +2715,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>35.51998788130945</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2775,10 +2775,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>148.1612423902099</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>66.82300722904168</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>40.24230334859364</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.04375511693387</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686744</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.64740624208219</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,13 +4194,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>170.5586896897042</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685707</v>
+        <v>851.5356804245454</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222749</v>
+        <v>540.2105993159273</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476793</v>
+        <v>520.9583825413316</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359409</v>
+        <v>94.98144268918921</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899356</v>
+        <v>73.89766491899351</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884625</v>
+        <v>73.59900654884621</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884625</v>
+        <v>73.59900654884621</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231746</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>517.641059534746</v>
+        <v>880.2445183516409</v>
       </c>
       <c r="L2" t="n">
-        <v>517.641059534746</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="M2" t="n">
-        <v>977.2289161310157</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373444</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373444</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615873</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615873</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489013</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533646</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130059</v>
+        <v>1676.751855212283</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563082</v>
+        <v>1676.751855212283</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566551</v>
+        <v>1280.36050551263</v>
       </c>
       <c r="X2" t="n">
-        <v>589.8986307648064</v>
+        <v>868.640506680377</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196967</v>
+        <v>867.3436406756714</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000786</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I3" t="n">
-        <v>46.1487782542293</v>
+        <v>46.14877825422926</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>796.7851917762482</v>
       </c>
       <c r="L3" t="n">
-        <v>317.8462675338204</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="M3" t="n">
-        <v>796.7851917762489</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018677</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="O3" t="n">
-        <v>1383.244289010048</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4476,61 +4476,61 @@
         <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="G4" t="n">
         <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647548</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>38.71266663273713</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167335</v>
+        <v>393.4019879271579</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>784.5877828974087</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.50742245321</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375111</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841773</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U4" t="n">
-        <v>1586.901630356107</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V4" t="n">
-        <v>1586.901630356107</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.04922652862</v>
+        <v>1780.955891393073</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.04922652862</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="Y4" t="n">
         <v>1312.04922652862</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2043.959734409802</v>
+        <v>591.614269593831</v>
       </c>
       <c r="C5" t="n">
-        <v>2021.099408463506</v>
+        <v>164.7135396071311</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>145.4613228325354</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>123.524787020797</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>102.4410092506013</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4606,13 +4606,13 @@
         <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M6" t="n">
-        <v>602.6104029955975</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451.3798346740465</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>451.3798346740465</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>288.0630618008172</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4728,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1947.200787969719</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1667.016339470023</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="V7" t="n">
-        <v>1385.304872078052</v>
+        <v>1699.860437296305</v>
       </c>
       <c r="W7" t="n">
-        <v>1110.452468250565</v>
+        <v>1699.860437296305</v>
       </c>
       <c r="X7" t="n">
-        <v>867.88857169637</v>
+        <v>1457.29654074211</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.5458033861121</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163287</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>2095.961431922162</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8185080541546</v>
+        <v>2094.664565917457</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>946.7665737820055</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7940106609215</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="D10" t="n">
-        <v>611.4772377876922</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1136.932542494071</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y10" t="n">
-        <v>1136.932542494071</v>
+        <v>927.6499241754298</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5050,16 +5050,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3959.47027938737</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4667.749558545297</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
         <v>4997.579335409525</v>
@@ -5086,7 +5086,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.5477476675559</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C13" t="n">
-        <v>516.5477476675559</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D13" t="n">
-        <v>516.5477476675559</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E13" t="n">
-        <v>516.5477476675559</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>344.6859734421163</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>344.6859734421163</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>200.8897049502707</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5205,46 +5205,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302424</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100493</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976529</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656292</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578193</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.677127506128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251163</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751467</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359496</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W13" t="n">
-        <v>985.4544125320087</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="X13" t="n">
-        <v>742.8905159778138</v>
+        <v>1346.493000510101</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.5477476675559</v>
+        <v>1212.333031768902</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5281,25 +5281,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2129.375202991803</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5323,7 +5323,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N15" t="n">
-        <v>1782.102586447038</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
         <v>1910.990343986338</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.0483191256287</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>512.0757560045447</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>512.0757560045447</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>345.8675501573982</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
         <v>345.8675501573982</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1898.15780502933</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>1617.973356529634</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.973356529634</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="W16" t="n">
-        <v>1343.120952702147</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.557056147952</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.2142878376944</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5524,16 +5524,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5551,13 +5551,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>1529.586448057074</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M18" t="n">
-        <v>1529.586448057074</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N18" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>344.5751845464741</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>344.5751845464741</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>178.3669786993277</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
         <v>2113.800768076615</v>
@@ -5737,28 +5737,28 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988734</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.067963188322</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>292.0244587153436</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
         <v>2011.818868109901</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.735894343786</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N21" t="n">
-        <v>1165.735894343786</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.5322462326804</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5992,19 +5992,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P23" t="n">
         <v>4541.493855905342</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>648.6278400003578</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M24" t="n">
-        <v>648.6278400003578</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N24" t="n">
-        <v>648.6278400003578</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6229,10 +6229,10 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.818868109901</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
         <v>2011.818868109901</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>730.647150085061</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6551,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>609.4538236255814</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>437.4812605044974</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>835.7965919358394</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>609.4538236255814</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,22 +6776,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6943,10 +6943,10 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
         <v>2988.069926596602</v>
@@ -6979,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7013,22 +7013,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O36" t="n">
         <v>1446.844867123559</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>742.8905159778161</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="C37" t="n">
-        <v>742.8905159778161</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D37" t="n">
-        <v>579.5737431045868</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E37" t="n">
-        <v>413.3655372574403</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F37" t="n">
-        <v>413.3655372574403</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G37" t="n">
         <v>345.8675501573982</v>
@@ -7140,7 +7140,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.8905159778161</v>
+        <v>702.2417247166104</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
         <v>1264.531207409474</v>
@@ -7174,19 +7174,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
         <v>3833.214576747414</v>
@@ -7201,25 +7201,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>4143.635082195253</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>5033.116360206724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>5033.116360206724</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402532</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281448</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408219</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561072</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335633</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629865</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138019</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878295</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102453</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.74157230829</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602711</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572962</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199448998</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128761</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>5115.135670291427</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>4833.424202899456</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>4558.571799071969</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>4316.007902517774</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>4089.665134207516</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7420,16 +7420,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409525</v>
@@ -7456,7 +7456,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>601.2341827829796</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>429.2616196618956</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>265.9448467886663</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>265.9448467886663</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1260.306816359498</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.742919805303</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>791.4001514950452</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,40 +7636,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L44" t="n">
-        <v>1394.531219842001</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M44" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
@@ -7684,10 +7684,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399955</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>4667.46047546338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>4667.46047546338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>4667.46047546338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3918.135197142812</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>3746.162634021728</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D46" t="n">
-        <v>3582.845861148498</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.637655301352</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F46" t="n">
-        <v>3244.775881075912</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G46" t="n">
-        <v>3078.518911370144</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>4871.796322517327</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>4591.611874017632</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>4591.611874017632</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>4316.759470190144</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>4144.477965453069</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>3918.135197142812</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487776</v>
+        <v>519.541291948777</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865906</v>
       </c>
       <c r="M2" t="n">
-        <v>501.661421077482</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884142</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>39.69551252341425</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641995</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.175924987301</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681972</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662962</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675099</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>131.7781250670408</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>47.52928858530194</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217030766</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>94.6403295087172</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8218,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>571.1852249800525</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8294,28 +8294,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N6" t="n">
-        <v>259.4889279983319</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8467,16 +8467,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>452.5855512828693</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>230.3933721714771</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>499.6833922165333</v>
       </c>
       <c r="O15" t="n">
-        <v>153.3615438023236</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>653.6520906270367</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,7 +9184,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>499.6833922165333</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.0580860608543</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>225.6703421419597</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9488,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>693.1063741240905</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9652,10 +9652,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>574.2427960500296</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,16 +9731,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>878.1144544646206</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0343783945846</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>229.9655591801901</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>835.1882033210079</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>749.1541615704315</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10591,13 +10591,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>200.0929141007635</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,13 +10831,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>143.6953511146608</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.73518417458029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,16 +11138,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>445.5991972680949</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>1027.220259954781</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2280472965118</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,19 +11387,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q45" t="n">
-        <v>392.0964168176092</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.169760948129081</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>91.26097157336815</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>75.19552205038323</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180538</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>79.23215548632197</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>94.83953384262102</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.0089626044161</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.0261359073655</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>2.326677470262837</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>91.97701519844301</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>97.7713927796685</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>183.8370372785617</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.2205539080111</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189918905</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>150.495750241103</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>44.20464122293447</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>69.57956789894868</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>562826.4630960908</v>
+        <v>562826.4630960909</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>562826.4630960909</v>
+        <v>562826.4630960908</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>562826.4630960908</v>
+        <v>562826.4630960909</v>
       </c>
     </row>
     <row r="14">
@@ -26316,43 +26316,43 @@
         <v>480515.2011092094</v>
       </c>
       <c r="C2" t="n">
-        <v>480515.2011092093</v>
+        <v>480515.2011092095</v>
       </c>
       <c r="D2" t="n">
         <v>480515.2011092094</v>
       </c>
       <c r="E2" t="n">
+        <v>463675.0825883938</v>
+      </c>
+      <c r="F2" t="n">
+        <v>463675.0825883938</v>
+      </c>
+      <c r="G2" t="n">
+        <v>463675.0825883938</v>
+      </c>
+      <c r="H2" t="n">
+        <v>463675.082588394</v>
+      </c>
+      <c r="I2" t="n">
         <v>463675.0825883939</v>
       </c>
-      <c r="F2" t="n">
-        <v>463675.0825883941</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>463675.0825883939</v>
       </c>
-      <c r="H2" t="n">
-        <v>463675.0825883941</v>
-      </c>
-      <c r="I2" t="n">
-        <v>463675.0825883938</v>
-      </c>
-      <c r="J2" t="n">
-        <v>463675.0825883938</v>
-      </c>
       <c r="K2" t="n">
-        <v>463675.0825883936</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="L2" t="n">
         <v>463675.0825883939</v>
       </c>
       <c r="M2" t="n">
+        <v>463675.082588394</v>
+      </c>
+      <c r="N2" t="n">
         <v>463675.0825883938</v>
       </c>
-      <c r="N2" t="n">
-        <v>463675.0825883941</v>
-      </c>
       <c r="O2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="P2" t="n">
         <v>463675.0825883939</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695913</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361215</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802889</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701974</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179728.0181786382</v>
+        <v>179728.0181786384</v>
       </c>
       <c r="C4" t="n">
         <v>165375.7390424566</v>
@@ -26426,16 +26426,16 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>43748.40045389553</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="F4" t="n">
-        <v>43748.40045389551</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389555</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389551</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389557</v>
@@ -26444,10 +26444,10 @@
         <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389556</v>
@@ -26456,10 +26456,10 @@
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="P4" t="n">
         <v>43748.40045389557</v>
-      </c>
-      <c r="P4" t="n">
-        <v>43748.40045389556</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216126</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75621.26403881861</v>
+        <v>75621.26403881867</v>
       </c>
       <c r="C6" t="n">
-        <v>224286.3773557125</v>
+        <v>224286.3773557124</v>
       </c>
       <c r="D6" t="n">
-        <v>247693.2110293246</v>
+        <v>247693.2110293247</v>
       </c>
       <c r="E6" t="n">
-        <v>126437.2633894282</v>
+        <v>126386.2327272437</v>
       </c>
       <c r="F6" t="n">
-        <v>342176.6199460689</v>
+        <v>342125.5892838842</v>
       </c>
       <c r="G6" t="n">
-        <v>342176.6199460686</v>
+        <v>342125.5892838842</v>
       </c>
       <c r="H6" t="n">
-        <v>342176.6199460689</v>
+        <v>342125.5892838844</v>
       </c>
       <c r="I6" t="n">
-        <v>342176.6199460686</v>
+        <v>342125.5892838844</v>
       </c>
       <c r="J6" t="n">
-        <v>215599.3513657797</v>
+        <v>215548.3207035956</v>
       </c>
       <c r="K6" t="n">
-        <v>323530.0195890486</v>
+        <v>323478.9889268645</v>
       </c>
       <c r="L6" t="n">
-        <v>342176.6199460686</v>
+        <v>342125.5892838843</v>
       </c>
       <c r="M6" t="n">
-        <v>162112.7484909009</v>
+        <v>162061.7178287167</v>
       </c>
       <c r="N6" t="n">
-        <v>342176.6199460688</v>
+        <v>342125.5892838843</v>
       </c>
       <c r="O6" t="n">
-        <v>342176.6199460687</v>
+        <v>342125.5892838843</v>
       </c>
       <c r="P6" t="n">
-        <v>342176.6199460686</v>
+        <v>342125.5892838844</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>114.419892389301</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>390.3743495457159</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27590,22 +27590,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>173.5654753938895</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>119.4945152986423</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.3945739651546</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>342.9323154271056</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27678,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>134.4062914546842</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>86.02262841516065</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>239.0374580042609</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>226.4593363808663</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>27.77629167420091</v>
       </c>
       <c r="E10" t="n">
-        <v>36.74534024663697</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28070,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="M2" t="n">
-        <v>464.2301581780502</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.304553167390154</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>108.6062353448186</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>25.75844738047328</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771759566716</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>72.14114201029275</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N6" t="n">
-        <v>238.1458997847902</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>415.010189472638</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>444.605878150503</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>432.5378064344753</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,7 +35573,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>358.272041711534</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
         <v>395.137166636617</v>
@@ -35649,16 +35649,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>478.3403640029916</v>
       </c>
       <c r="O15" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>616.220827727605</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,7 +35904,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>478.3403640029916</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.6381265752677</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>669.9344844018683</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36372,10 +36372,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>551.8435622166962</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>839.8024120319977</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>797.7972439649839</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>726.6390748562019</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,13 +37311,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.6936802674302</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,13 +37551,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>106.3043917586367</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3921559610386215</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37709,7 +37709,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366201</v>
       </c>
       <c r="N40" t="n">
         <v>381.3045564404402</v>
@@ -37718,7 +37718,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968729</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
         <v>128.2829598391535</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37858,16 +37858,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>422.5024167557669</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>989.7889970553492</v>
       </c>
       <c r="N44" t="n">
-        <v>713.9484244620658</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q45" t="n">
-        <v>369.3493785286307</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
